--- a/基本設計・詳細設計/画面遷移図.xlsx
+++ b/基本設計・詳細設計/画面遷移図.xlsx
@@ -658,16 +658,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>275431</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>141578</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>73657</xdr:rowOff>
+      <xdr:rowOff>57180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>21431</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>458777</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>178432</xdr:rowOff>
+      <xdr:rowOff>161955</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -676,8 +676,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275431" y="3993512"/>
-          <a:ext cx="1308101" cy="788671"/>
+          <a:off x="6682078" y="3977035"/>
+          <a:ext cx="1561800" cy="788671"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -905,16 +905,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>275431</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109490</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>179704</xdr:rowOff>
+      <xdr:rowOff>154304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>21431</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426689</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>56513</xdr:rowOff>
+      <xdr:rowOff>31113</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -923,8 +923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275431" y="1136014"/>
-          <a:ext cx="1308101" cy="788670"/>
+          <a:off x="6649990" y="1110614"/>
+          <a:ext cx="1561800" cy="788670"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1152,26 +1152,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>294481</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1201892</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>107947</xdr:rowOff>
+      <xdr:rowOff>7168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2381</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>658973</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>8888</xdr:rowOff>
+      <xdr:rowOff>146868</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ひし形"/>
+        <xdr:cNvPr id="6" name="ログイン可否"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="294481" y="2432047"/>
-          <a:ext cx="1270001" cy="812802"/>
+          <a:off x="6497792" y="2331268"/>
+          <a:ext cx="1946282" cy="1051561"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1221,12 +1221,8559 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログイン可否</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>922478</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>207643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>922478</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7462978" y="1847848"/>
+          <a:ext cx="1" cy="605870"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>782590</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>227438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268359</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>189119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="「ログイン」ボタン押下"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7323090" y="1867643"/>
+          <a:ext cx="1974970" cy="417612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「ログイン」ボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>928490</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>928490</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7468990" y="3321289"/>
+          <a:ext cx="1" cy="710718"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414742</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>192883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>909440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ログイン成功時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5710642" y="3428843"/>
+          <a:ext cx="1739299" cy="417611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログイン成功時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160447</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557732</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="アカウント登録画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1722547" y="7748277"/>
+          <a:ext cx="1641886" cy="788671"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93789</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533209</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>54015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="アカウント検索画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6634289" y="7744500"/>
+          <a:ext cx="1684021" cy="788671"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント検索画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>605970</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>244337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1045390</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>156707</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="ログアウト完了画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15858670" y="20385902"/>
+          <a:ext cx="1684021" cy="788671"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログアウト完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981389</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981389</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2543489" y="6021713"/>
+          <a:ext cx="1" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1163053</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1217343</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="「アカウント登録」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3969753" y="5393079"/>
+          <a:ext cx="2543491" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「アカウント登録」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>983332</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1190748</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545432" y="6015363"/>
+          <a:ext cx="3941217" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935799</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935799</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>221086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7476299" y="6493509"/>
+          <a:ext cx="1" cy="1294873"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>439727</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52746</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8224827" y="6024286"/>
+          <a:ext cx="8397794" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163420</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>37474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163420</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>278106</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16660720" y="6009013"/>
+          <a:ext cx="1" cy="14410659"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>726763</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>916749</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>223241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="「アカウント一覧」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4778063" y="6518114"/>
+          <a:ext cx="2679187" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「アカウント一覧」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>769797</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>679746</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="「ログアウト」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8554897" y="5393079"/>
+          <a:ext cx="2399150" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「ログアウト」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160447</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557732</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>201301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="アカウント登録確認画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1722547" y="9259577"/>
+          <a:ext cx="1641886" cy="788670"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント登録確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160447</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>222242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557732</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="アカウント登録完了画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1722547" y="12477107"/>
+          <a:ext cx="1641886" cy="788671"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント登録完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981389</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981389</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543489" y="8485512"/>
+          <a:ext cx="1" cy="825501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981389</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>32378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981389</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>273677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543489" y="11703043"/>
+          <a:ext cx="1" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242948</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>194693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962339</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="「確認する」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="242948" y="8673848"/>
+          <a:ext cx="2281492" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「確認する」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>281048</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>260695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000439</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>265022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="「登録する」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="281048" y="11931360"/>
+          <a:ext cx="2281492" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「登録する」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>24758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>24758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3502050" y="11239493"/>
+          <a:ext cx="1292011" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>524960</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>162732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>746899</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>162732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3331660" y="8185957"/>
+          <a:ext cx="1466539" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>18408</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4794060" y="8163947"/>
+          <a:ext cx="1" cy="3069197"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>331900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>111884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1106211</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>244481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="「前の画面に戻る」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3138600" y="11326619"/>
+          <a:ext cx="2018912" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「前の画面に戻る」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>975039</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>77251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>975039</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>108576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2537139" y="13208416"/>
+          <a:ext cx="1" cy="1491826"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1201121</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-232432" y="14706591"/>
+          <a:ext cx="2763222" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>223550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>118153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="-226082" y="4371370"/>
+          <a:ext cx="1" cy="17640949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>223550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>223550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-219732" y="4371370"/>
+          <a:ext cx="6920861" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242948</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>209895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962339</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>214221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="「TOPページへ戻る」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="242948" y="13633160"/>
+          <a:ext cx="2281492" cy="588527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「TOPページへ戻る」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935799</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>216477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935799</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7476299" y="8467667"/>
+          <a:ext cx="1" cy="1186245"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>751541</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>59406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>941528</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>192002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="「検索」または「全てのアカウント検索」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4802841" y="8766526"/>
+          <a:ext cx="2679188" cy="588527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「検索」または「全てのアカウント検索」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93789</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>213321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533209</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>90131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="アカウント一覧"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6634289" y="9604336"/>
+          <a:ext cx="1684021" cy="788671"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>407640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>580749</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8192740" y="1539906"/>
+          <a:ext cx="10129909" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654618</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>70668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1055305</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>70668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439718" y="2850698"/>
+          <a:ext cx="1645288" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1061655</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1061655</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>67731</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10091355" y="1539906"/>
+          <a:ext cx="1" cy="1307856"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>867256</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117354</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="ログイン失敗時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8652356" y="2930914"/>
+          <a:ext cx="1739299" cy="417612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログイン失敗時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1193937</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>208289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>651018</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="ログイン可否"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6489837" y="5495934"/>
+          <a:ext cx="1946282" cy="1051560"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="10800"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ログイン可否</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>928490</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>928490</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7468990" y="4718289"/>
+          <a:ext cx="1" cy="812558"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1560125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>182182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>699706</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>93916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="ボタンの選択"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1560125" y="10713022"/>
+          <a:ext cx="1946282" cy="1051560"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="10800"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ボタンの選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981389</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>149866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981389</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543489" y="9996811"/>
+          <a:ext cx="1" cy="825501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1193937</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>20868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>651018</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>32297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="ボタンの選択"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6489837" y="11235603"/>
+          <a:ext cx="1946282" cy="1051560"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="10800"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ボタンの選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>922478</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>44456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>922478</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>82556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7462978" y="10347331"/>
+          <a:ext cx="1" cy="949961"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>922478</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>246196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>922478</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>27756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7462978" y="12208961"/>
+          <a:ext cx="1" cy="949961"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935799</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>282650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935799</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>271787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7476299" y="13705915"/>
+          <a:ext cx="1" cy="865438"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>630704</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>271514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>820691</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>275841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="「削除」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4682004" y="12234279"/>
+          <a:ext cx="2679187" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「削除」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93789</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>268421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533209</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="アカウント削除画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6634289" y="13107486"/>
+          <a:ext cx="1684021" cy="788671"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント削除画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109490</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>220352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548911</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>132722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="アカウント削除確認画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6649990" y="14519917"/>
+          <a:ext cx="1684022" cy="788671"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント削除確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>630704</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>265905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>820691</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>270232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="「確認する」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4682004" y="13981270"/>
+          <a:ext cx="2679187" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「確認する」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1222960</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>162179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>680041</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>45339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="ボタンの選択"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6518860" y="15922244"/>
+          <a:ext cx="1946282" cy="1051561"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="10800"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ボタンの選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>951501</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>81287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>951501</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>223718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7492001" y="15257152"/>
+          <a:ext cx="1" cy="726632"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>960578</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>275900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>960578</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>126232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7501078" y="16912265"/>
+          <a:ext cx="1" cy="726633"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>719453</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>84333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>909440</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>88659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="「削除する」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4770753" y="17012798"/>
+          <a:ext cx="2679188" cy="588527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「削除する」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>610117</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>112630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657527</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>112630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8395217" y="16456895"/>
+          <a:ext cx="1292011" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529861</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657527</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8314961" y="13450706"/>
+          <a:ext cx="1372267" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657527</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657527</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>106280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9687227" y="13450706"/>
+          <a:ext cx="1" cy="2999840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635568</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>156770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165279</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="「前の画面に戻る」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420668" y="16501035"/>
+          <a:ext cx="2018912" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「前の画面に戻る」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>141578</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>74797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>580998</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>279266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="アカウント削除完了画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6682078" y="17587462"/>
+          <a:ext cx="1684021" cy="788670"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント削除完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>591067</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>167717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>781054</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>172043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="「削除」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8376167" y="11838382"/>
+          <a:ext cx="2679188" cy="588527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「削除」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41570</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41570</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>27756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12805070" y="11767733"/>
+          <a:ext cx="1" cy="1391189"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41570</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97068</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8423750" y="11767733"/>
+          <a:ext cx="4381321" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444160</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>268421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>883580</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="アカウント更新画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11963060" y="13107486"/>
+          <a:ext cx="1684021" cy="788671"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント更新画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25868</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>96326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25868</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12789368" y="13811691"/>
+          <a:ext cx="1" cy="865438"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444160</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>34029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>883580</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>238498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="アカウント更新確認画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11963060" y="14625694"/>
+          <a:ext cx="1684021" cy="788670"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント更新確認画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>965373</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>79582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1155360</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>83909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="「確認する」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9995073" y="14087047"/>
+          <a:ext cx="2679188" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「確認する」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41570</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>187064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41570</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>37395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12805070" y="15362929"/>
+          <a:ext cx="1" cy="726632"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>301511</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>251395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1003192</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>134555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="ボタンの選択"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820411" y="16011460"/>
+          <a:ext cx="1946282" cy="1051561"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="10800"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ボタンの選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39129</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>73015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39129</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>215447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12802629" y="17001480"/>
+          <a:ext cx="1" cy="726633"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1042605</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>173548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1232591</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>177875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="「更新する」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10072305" y="17102013"/>
+          <a:ext cx="2679187" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「更新する」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>933269</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>201844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>980679</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>201844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13696769" y="16546109"/>
+          <a:ext cx="1292011" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>853012</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>980678</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13616512" y="13539921"/>
+          <a:ext cx="1372267" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>980679</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>980679</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>195494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14988779" y="13539921"/>
+          <a:ext cx="1" cy="2999839"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>958719</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>245986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>488430</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>250313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="「前の画面に戻る」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13722219" y="16590251"/>
+          <a:ext cx="2018912" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「前の画面に戻る」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464730</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>164012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>904150</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="アカウント更新完了画面"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11983630" y="17676677"/>
+          <a:ext cx="1684021" cy="788670"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4953" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16647" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="17374" y="0"/>
+                <a:pt x="17955" y="0"/>
+                <a:pt x="18428" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="18900" y="112"/>
+                <a:pt x="19263" y="225"/>
+                <a:pt x="19554" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19973" y="732"/>
+                <a:pt x="20348" y="1179"/>
+                <a:pt x="20656" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20963" y="2319"/>
+                <a:pt x="21205" y="3013"/>
+                <a:pt x="21357" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21479" y="4327"/>
+                <a:pt x="21539" y="5000"/>
+                <a:pt x="21570" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="6750"/>
+                <a:pt x="21600" y="7826"/>
+                <a:pt x="21600" y="9172"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="12428"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="13774"/>
+                <a:pt x="21600" y="14850"/>
+                <a:pt x="21570" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21539" y="16600"/>
+                <a:pt x="21479" y="17273"/>
+                <a:pt x="21357" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21205" y="18587"/>
+                <a:pt x="20963" y="19281"/>
+                <a:pt x="20656" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20348" y="20421"/>
+                <a:pt x="19973" y="20868"/>
+                <a:pt x="19554" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="19263" y="21375"/>
+                <a:pt x="18900" y="21488"/>
+                <a:pt x="18428" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17955" y="21600"/>
+                <a:pt x="17374" y="21600"/>
+                <a:pt x="16647" y="21600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4953" y="21600"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4226" y="21600"/>
+                <a:pt x="3645" y="21600"/>
+                <a:pt x="3172" y="21544"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2700" y="21488"/>
+                <a:pt x="2337" y="21375"/>
+                <a:pt x="2046" y="21151"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1627" y="20868"/>
+                <a:pt x="1252" y="20421"/>
+                <a:pt x="944" y="19851"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="637" y="19281"/>
+                <a:pt x="395" y="18587"/>
+                <a:pt x="243" y="17811"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121" y="17273"/>
+                <a:pt x="61" y="16600"/>
+                <a:pt x="30" y="15725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="14850"/>
+                <a:pt x="0" y="13774"/>
+                <a:pt x="0" y="12428"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="9172"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="7826"/>
+                <a:pt x="0" y="6750"/>
+                <a:pt x="30" y="5875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="61" y="5000"/>
+                <a:pt x="121" y="4327"/>
+                <a:pt x="243" y="3789"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="395" y="3013"/>
+                <a:pt x="637" y="2319"/>
+                <a:pt x="944" y="1749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1252" y="1179"/>
+                <a:pt x="1627" y="732"/>
+                <a:pt x="2046" y="449"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2337" y="225"/>
+                <a:pt x="2700" y="112"/>
+                <a:pt x="3172" y="56"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3645" y="0"/>
+                <a:pt x="4226" y="0"/>
+                <a:pt x="4953" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="D5D5D5"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>アカウント更新完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1222960</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>283652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>680041</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>166811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="ボタンの選択"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6518860" y="18964717"/>
+          <a:ext cx="1946282" cy="1051560"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="10800"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ボタンの選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>951500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>202759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>951500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>53090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7492000" y="18299624"/>
+          <a:ext cx="1" cy="726632"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>951501</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>105273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>951501</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>82127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7492001" y="19954738"/>
+          <a:ext cx="1" cy="853155"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>225231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212414</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>225231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-210034" y="19490496"/>
+          <a:ext cx="6752915" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180452</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>235592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1217343</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>239919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="「TOPページへ戻る」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4231752" y="18624557"/>
+          <a:ext cx="2281492" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「TOPページへ戻る」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41569</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>24946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41569</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>167378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12805069" y="18413911"/>
+          <a:ext cx="1" cy="726633"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>301511</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>89277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1003192</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>264537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="ボタンの選択"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820411" y="19062442"/>
+          <a:ext cx="1946282" cy="1051561"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="10800"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>ボタンの選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>955991</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>82127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>625020</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>82127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496491" y="20807892"/>
+          <a:ext cx="8381230" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580692</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>275942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>770679</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>280269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="「ログアウト」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7121192" y="20125407"/>
+          <a:ext cx="2679188" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「ログアウト」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25868</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>202998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25868</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>82127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12789368" y="20052463"/>
+          <a:ext cx="1" cy="755430"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60620</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>275942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1215169</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>280269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="「ログアウト」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12824120" y="20125407"/>
+          <a:ext cx="2399150" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「ログアウト」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>540615</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>44821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335518</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>44821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10814915" y="19602186"/>
+          <a:ext cx="1039504" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>965373</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>165214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>757664</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>169541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="「TOPページへ戻る」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9995073" y="18846279"/>
+          <a:ext cx="2281492" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「TOPページへ戻る」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>540615</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>51171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>540615</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>118152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10814915" y="19608536"/>
+          <a:ext cx="1" cy="2403782"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>119073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>746999</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>119073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-212369" y="22013238"/>
+          <a:ext cx="11021300" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203791</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>98935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203791</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>172595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16701091" y="21116800"/>
+          <a:ext cx="1" cy="949961"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214631</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>188217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593449</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>188217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16711931" y="22082382"/>
+          <a:ext cx="1623419" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>587099</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>599799</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>188216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18328999" y="1539953"/>
+          <a:ext cx="12701" cy="20542429"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>272521</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182470</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>156535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="「ログイン」ボタン押下時"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14280621" y="21462173"/>
+          <a:ext cx="2399150" cy="588528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>「ログイン」ボタン押下時</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
